--- a/PyCHAM/input/TEST/cont_infl_ning.xlsx
+++ b/PyCHAM/input/TEST/cont_infl_ning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livemanchesterac-my.sharepoint.com/personal/simon_omeara_manchester_ac_uk/Documents/GitHub/PyCHAM/PyCHAM/input/TEST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sempr\Downloads\PyCHAM-master_latest\PyCHAM-master\PyCHAM\input\ning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2A54C1E2-9B0E-4A84-9429-4294CE997005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E43A69CD-853A-F949-8CD1-879863FD82E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996347C3-8696-418B-936E-C637F358948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1420" windowWidth="14400" windowHeight="8200" xr2:uid="{A12B527E-AFAD-6348-8F8E-CC39D59E777A}"/>
+    <workbookView xWindow="3550" yWindow="1595" windowWidth="14400" windowHeight="8190" xr2:uid="{A12B527E-AFAD-6348-8F8E-CC39D59E777A}"/>
   </bookViews>
   <sheets>
     <sheet name="cont_infl" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>BENZENE</t>
   </si>
@@ -53,19 +53,16 @@
     <t>OXYL</t>
   </si>
   <si>
-    <t>NO2</t>
-  </si>
-  <si>
     <t>O3</t>
   </si>
   <si>
     <t>ppb/s</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>APINENE</t>
   </si>
   <si>
-    <t>APINENE</t>
+    <t>NO2</t>
   </si>
 </sst>
 </file>
@@ -76,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,10 +166,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,17 +465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9915D14-D182-E247-B384-ACBF32C9043F}">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
@@ -495,15 +488,15 @@
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4">
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>172800</v>
+        <v>120000</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -519,15 +512,15 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>1.5E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -542,15 +535,15 @@
       <c r="N2" s="7"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -565,15 +558,15 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -588,15 +581,15 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -611,15 +604,15 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -634,15 +627,15 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+    <row r="7" spans="1:16">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C7" s="4">
-        <v>7.5000000000000002E-4</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -657,15 +650,15 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -680,15 +673,15 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -703,16 +696,10 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.09</v>
-      </c>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -726,7 +713,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -743,7 +730,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -760,7 +747,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -777,7 +764,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -794,7 +781,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -811,7 +798,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -828,8 +815,8 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -845,8 +832,8 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -862,8 +849,8 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:15">
+      <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -879,8 +866,8 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:15">
+      <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -896,8 +883,8 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -913,8 +900,8 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="12"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -930,8 +917,8 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -947,8 +934,8 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -964,7 +951,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -981,7 +968,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -998,7 +985,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1015,7 +1002,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1032,7 +1019,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1049,7 +1036,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1066,7 +1053,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1083,7 +1070,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1100,8 +1087,8 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1117,7 +1104,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="5"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1134,8 +1121,8 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1151,7 +1138,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1168,7 +1155,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1185,7 +1172,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1202,7 +1189,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1219,7 +1206,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1236,7 +1223,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1253,7 +1240,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1270,8 +1257,8 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
+    <row r="43" spans="1:15">
+      <c r="A43" s="8"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1287,7 +1274,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1304,7 +1291,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="8"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1321,8 +1308,8 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:15">
+      <c r="A46" s="6"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1338,8 +1325,8 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:15">
+      <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1355,8 +1342,8 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+    <row r="48" spans="1:15">
+      <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1372,7 +1359,7 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1389,7 +1376,7 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1406,8 +1393,8 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:15">
+      <c r="A51" s="8"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1423,8 +1410,8 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+    <row r="52" spans="1:15">
+      <c r="A52" s="8"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1440,7 +1427,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" s="8"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1457,7 +1444,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1474,7 +1461,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" s="8"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1491,7 +1478,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" s="8"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1508,7 +1495,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="8"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1525,7 +1512,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" s="8"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1542,7 +1529,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59" s="8"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1559,7 +1546,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60" s="8"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1576,25 +1563,25 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="4"/>
+    <row r="61" spans="1:15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+    <row r="62" spans="1:15">
+      <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1610,25 +1597,25 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="4"/>
+    <row r="63" spans="1:15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+    <row r="64" spans="1:15">
+      <c r="A64" s="6"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1644,16 +1631,16 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
+    <row r="65" spans="1:15">
+      <c r="A65" s="8"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="2"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -1661,42 +1648,42 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
+    <row r="66" spans="1:15">
+      <c r="A66" s="8"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
+    <row r="67" spans="1:15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+    <row r="68" spans="1:15">
+      <c r="A68" s="6"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1712,40 +1699,6 @@
       <c r="N68" s="2"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
